--- a/Qualidade_De_Software/Projeto_Disciplina/Arquivos a ser entregues/Acompanhamento das NCs.xlsx
+++ b/Qualidade_De_Software/Projeto_Disciplina/Arquivos a ser entregues/Acompanhamento das NCs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\OneDrive\Área de Trabalho\Faculdade\4° semestre\TrabalhosFacul\Qualidade_De_Software\Projeto_Disciplina\Arquivos a ser entregues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E1C3CC3-8E3D-4F4D-91F8-FADD0968FBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9861404C-7CA0-4B37-931C-EECCBA0F47EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3311B9F3-EC85-4D50-9320-ABAE8F5BDF0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Trabalho Baba Baby</t>
   </si>
@@ -105,14 +105,17 @@
     <t>Julio</t>
   </si>
   <si>
-    <t>Em aberto</t>
+    <t>Fechado por exceção</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +125,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -209,49 +205,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,35 +585,35 @@
   <dimension ref="B4:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" customWidth="1"/>
     <col min="5" max="5" width="17.21875" customWidth="1"/>
     <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -641,98 +636,98 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
+    <row r="9" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>30</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
-        <v>30</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>20</v>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
@@ -754,154 +749,157 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="36" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
+    <row r="15" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
         <v>14</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="B16" s="9">
+      <c r="G15" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
         <v>18</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="24" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
+      <c r="G16" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
         <v>19</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>20</v>
+      <c r="G17" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="2:7" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="14"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:G5"/>
     <mergeCell ref="B12:G13"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G11 G15:G17" xr:uid="{E92877C2-A36D-4E28-BF30-7A761C70B9C8}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15:G17 G10:G11" xr:uid="{E92877C2-A36D-4E28-BF30-7A761C70B9C8}">
       <formula1>"Em aberto, Resolvido, Escalonado"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G9" xr:uid="{23DD27B8-DE08-475B-BD37-77CDBC7D17EF}">
+      <formula1>"Em aberto, Resolvido, Escalonado, Fechado por exceção"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
